--- a/Tables/NN_architecture_GPT_out.xlsx
+++ b/Tables/NN_architecture_GPT_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241AA071-9721-4214-892B-A211D6AE7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF06DA2-DA7D-4735-8CE6-4C88CFE645C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>MC Geometry</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>in-vivo bacteria colony</t>
+  </si>
+  <si>
+    <t>RL</t>
   </si>
 </sst>
 </file>
@@ -470,20 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +520,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -551,7 +554,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -568,7 +571,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -585,7 +588,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -619,7 +622,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -636,7 +639,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -670,7 +673,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -687,7 +690,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -704,7 +707,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -721,7 +724,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -772,7 +775,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -789,7 +792,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -800,13 +803,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -823,7 +826,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -840,7 +843,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -848,12 +851,29 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>0.27</v>
       </c>
     </row>
